--- a/data/Login.xlsx
+++ b/data/Login.xlsx
@@ -4,35 +4,48 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="5235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangjiahao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heheh</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangshui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjiahao1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,9 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -456,7 +472,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,26 +491,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9544257521</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1234</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3456765</v>
       </c>
     </row>
   </sheetData>
